--- a/datasets/Training/Population/SeoulPop.xlsx
+++ b/datasets/Training/Population/SeoulPop.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>서울특별시</t>
-  </si>
   <si>
     <t>　　　종로구</t>
   </si>
@@ -97,6 +94,10 @@
   </si>
   <si>
     <t>　　　강동구</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,15 +468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1">
         <v>4421022</v>
@@ -588,7 +589,7 @@
     </row>
     <row r="2" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>75060</v>
@@ -701,7 +702,7 @@
     </row>
     <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>63707</v>
@@ -814,7 +815,7 @@
     </row>
     <row r="4" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>113267</v>
@@ -927,7 +928,7 @@
     </row>
     <row r="5" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>135862</v>
@@ -1040,7 +1041,7 @@
     </row>
     <row r="6" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>167561</v>
@@ -1153,7 +1154,7 @@
     </row>
     <row r="7" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>167524</v>
@@ -1266,7 +1267,7 @@
     </row>
     <row r="8" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>186225</v>
@@ -1379,7 +1380,7 @@
     </row>
     <row r="9" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>195703</v>
@@ -1492,7 +1493,7 @@
     </row>
     <row r="10" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>145934</v>
@@ -1605,7 +1606,7 @@
     </row>
     <row r="11" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>138984</v>
@@ -1718,7 +1719,7 @@
     </row>
     <row r="12" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>218213</v>
@@ -1831,7 +1832,7 @@
     </row>
     <row r="13" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>214099</v>
@@ -1944,7 +1945,7 @@
     </row>
     <row r="14" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>144808</v>
@@ -2057,7 +2058,7 @@
     </row>
     <row r="15" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>178543</v>
@@ -2170,7 +2171,7 @@
     </row>
     <row r="16" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>180677</v>
@@ -2283,7 +2284,7 @@
     </row>
     <row r="17" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>267162</v>
@@ -2396,7 +2397,7 @@
     </row>
     <row r="18" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>180620</v>
@@ -2509,7 +2510,7 @@
     </row>
     <row r="19" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>114955</v>
@@ -2622,7 +2623,7 @@
     </row>
     <row r="20" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>185331</v>
@@ -2735,7 +2736,7 @@
     </row>
     <row r="21" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>184098</v>
@@ -2848,7 +2849,7 @@
     </row>
     <row r="22" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>274910</v>
@@ -2961,7 +2962,7 @@
     </row>
     <row r="23" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>173514</v>
@@ -3074,7 +3075,7 @@
     </row>
     <row r="24" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>234688</v>
@@ -3187,7 +3188,7 @@
     </row>
     <row r="25" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>282125</v>
@@ -3300,7 +3301,7 @@
     </row>
     <row r="26" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>197452</v>
